--- a/biology/Botanique/Cornuaceae/Cornuaceae.xlsx
+++ b/biology/Botanique/Cornuaceae/Cornuaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cornuaceae sont une famille d'algues unicellulaires de l'ordre des Dictyochales[1],[2].
-Le genre fossile Cornua a été décrit pour la première fois par Schulz (1928) dans une roche diatomite du Crétacé (Sénonien) de  Westphalie (Allemagne) et était vu comme un possible « ancêtre de l'ordre des Silicoflagellés »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cornuaceae sont une famille d'algues unicellulaires de l'ordre des Dictyochales,.
+Le genre fossile Cornua a été décrit pour la première fois par Schulz (1928) dans une roche diatomite du Crétacé (Sénonien) de  Westphalie (Allemagne) et était vu comme un possible « ancêtre de l'ordre des Silicoflagellés ».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cornua, du latin cornu, corne, en référence à la forme des spicules du squelette siliceux de cet organisme. 
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 janvier 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 janvier 2022) :
 Cornua P.Schulz, 1928</t>
         </is>
       </c>
